--- a/database-archives/data-dict-moer.xlsx
+++ b/database-archives/data-dict-moer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davis\OneDrive\Repositórios\Moer\dicionario-dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davis\OneDrive\Repositórios\Moer\moer\database-archives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106078CE-1FC6-4D7D-A1CD-AA40584A04F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC032DD-025E-4289-ADC0-7DCB44B1026E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{2F40E3E7-2C12-41DE-BD17-EC2C94FBE436}"/>
+    <workbookView xWindow="8820" yWindow="3090" windowWidth="17865" windowHeight="12015" firstSheet="1" activeTab="1" xr2:uid="{2F40E3E7-2C12-41DE-BD17-EC2C94FBE436}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>coluna</t>
   </si>
@@ -186,9 +186,6 @@
     <t>dim_torrefacoes</t>
   </si>
   <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
     <t>dt_dia_extracao</t>
   </si>
   <si>
@@ -196,6 +193,36 @@
   </si>
   <si>
     <t>vl_altitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chave primária, id da extação </t>
+  </si>
+  <si>
+    <t>chave estrageira, relacionamento com a tablea de equipamentos</t>
+  </si>
+  <si>
+    <t>vl_temperatura</t>
+  </si>
+  <si>
+    <t>vl_regulagem_moedor</t>
+  </si>
+  <si>
+    <t>NUMERIC (5,2)</t>
+  </si>
+  <si>
+    <t>INT PRIMARY KEY IDENTITY</t>
+  </si>
+  <si>
+    <t>dia em que a extração foi realizada</t>
+  </si>
+  <si>
+    <t>tempo de extração</t>
+  </si>
+  <si>
+    <t>temperatura da agua em graus celcius</t>
+  </si>
+  <si>
+    <t>quantidade de clicks do moedor</t>
   </si>
 </sst>
 </file>
@@ -219,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +259,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -241,14 +274,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,15 +694,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F068834-DC31-4858-964C-6A0C197E6D46}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A7" sqref="A7:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -634,9 +746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="2"/>
-    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -644,19 +754,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1F4AFA-0919-46C5-AC61-DB5E93AFE5A3}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,98 +780,135 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B13" s="7" t="s">
         <v>43</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -770,16 +919,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B5D1E-0267-4AE8-80F0-8251275A02CC}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,6 +951,7 @@
         <v>37</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
@@ -820,14 +971,16 @@
         <v>40</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -836,17 +989,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6E814-B75B-4C83-B958-5887D75E2728}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B16" sqref="A16:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -876,14 +1030,16 @@
         <v>37</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
@@ -933,6 +1089,7 @@
         <v>40</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
@@ -955,6 +1112,7 @@
         <v>32</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -962,17 +1120,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F16CD1-ACC9-469D-80A4-0711E6284561}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -994,6 +1153,7 @@
         <v>37</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
@@ -1002,6 +1162,7 @@
         <v>40</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
